--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.94218233333334</v>
+        <v>33.64214033333334</v>
       </c>
       <c r="H2">
-        <v>74.82654700000001</v>
+        <v>100.926421</v>
       </c>
       <c r="I2">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="J2">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N2">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O2">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P2">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q2">
-        <v>0.4963078581294445</v>
+        <v>0.4506925399988889</v>
       </c>
       <c r="R2">
-        <v>4.466770723165</v>
+        <v>4.05623285999</v>
       </c>
       <c r="S2">
-        <v>0.0002072068267819186</v>
+        <v>0.008980339434127483</v>
       </c>
       <c r="T2">
-        <v>0.0002072068267819186</v>
+        <v>0.008980339434127479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.94218233333334</v>
+        <v>33.64214033333334</v>
       </c>
       <c r="H3">
-        <v>74.82654700000001</v>
+        <v>100.926421</v>
       </c>
       <c r="I3">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="J3">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N3">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O3">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P3">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q3">
-        <v>62.86559828859701</v>
+        <v>4.241814120115444</v>
       </c>
       <c r="R3">
-        <v>565.7903845973731</v>
+        <v>38.17632708103901</v>
       </c>
       <c r="S3">
-        <v>0.02624617144733899</v>
+        <v>0.08452088116480785</v>
       </c>
       <c r="T3">
-        <v>0.02624617144733899</v>
+        <v>0.08452088116480784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.94218233333334</v>
+        <v>33.64214033333334</v>
       </c>
       <c r="H4">
-        <v>74.82654700000001</v>
+        <v>100.926421</v>
       </c>
       <c r="I4">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="J4">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N4">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O4">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P4">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q4">
-        <v>87.96525724712224</v>
+        <v>0.6772162849100001</v>
       </c>
       <c r="R4">
-        <v>791.6873152241002</v>
+        <v>6.09494656419</v>
       </c>
       <c r="S4">
-        <v>0.03672519288718876</v>
+        <v>0.01349397109795866</v>
       </c>
       <c r="T4">
-        <v>0.03672519288718876</v>
+        <v>0.01349397109795866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,13 +729,13 @@
         <v>242.358393</v>
       </c>
       <c r="H5">
-        <v>727.075179</v>
+        <v>727.0751789999999</v>
       </c>
       <c r="I5">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896593</v>
       </c>
       <c r="J5">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896592</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N5">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O5">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P5">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q5">
-        <v>4.822528090045</v>
+        <v>3.246794604889999</v>
       </c>
       <c r="R5">
-        <v>43.402752810405</v>
+        <v>29.22115144400999</v>
       </c>
       <c r="S5">
-        <v>0.002013388920278327</v>
+        <v>0.06469447580578526</v>
       </c>
       <c r="T5">
-        <v>0.002013388920278327</v>
+        <v>0.06469447580578523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,43 +791,43 @@
         <v>242.358393</v>
       </c>
       <c r="H6">
-        <v>727.075179</v>
+        <v>727.0751789999999</v>
       </c>
       <c r="I6">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896593</v>
       </c>
       <c r="J6">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896592</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N6">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O6">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P6">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q6">
-        <v>610.8529387120291</v>
+        <v>30.558081125929</v>
       </c>
       <c r="R6">
-        <v>5497.676448408262</v>
+        <v>275.022730133361</v>
       </c>
       <c r="S6">
-        <v>0.2550290046544402</v>
+        <v>0.6088894681219339</v>
       </c>
       <c r="T6">
-        <v>0.2550290046544402</v>
+        <v>0.6088894681219339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,43 +853,43 @@
         <v>242.358393</v>
       </c>
       <c r="H7">
-        <v>727.075179</v>
+        <v>727.0751789999999</v>
       </c>
       <c r="I7">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896593</v>
       </c>
       <c r="J7">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896592</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N7">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O7">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P7">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q7">
-        <v>854.7415018193001</v>
+        <v>4.878674451089999</v>
       </c>
       <c r="R7">
-        <v>7692.673516373701</v>
+        <v>43.90807005980999</v>
       </c>
       <c r="S7">
-        <v>0.3568516424025593</v>
+        <v>0.09721073386194005</v>
       </c>
       <c r="T7">
-        <v>0.3568516424025593</v>
+        <v>0.09721073386194004</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.60464166666667</v>
+        <v>9.788214000000002</v>
       </c>
       <c r="H8">
-        <v>169.813925</v>
+        <v>29.364642</v>
       </c>
       <c r="I8">
-        <v>0.1433796102443937</v>
+        <v>0.0311303568359039</v>
       </c>
       <c r="J8">
-        <v>0.1433796102443937</v>
+        <v>0.03113035683590389</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N8">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O8">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P8">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q8">
-        <v>1.126338028097222</v>
+        <v>0.13112944022</v>
       </c>
       <c r="R8">
-        <v>10.137042252875</v>
+        <v>1.18016496198</v>
       </c>
       <c r="S8">
-        <v>0.0004702422596439298</v>
+        <v>0.002612838639365168</v>
       </c>
       <c r="T8">
-        <v>0.0004702422596439297</v>
+        <v>0.002612838639365167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.60464166666667</v>
+        <v>9.788214000000002</v>
       </c>
       <c r="H9">
-        <v>169.813925</v>
+        <v>29.364642</v>
       </c>
       <c r="I9">
-        <v>0.1433796102443937</v>
+        <v>0.0311303568359039</v>
       </c>
       <c r="J9">
-        <v>0.1433796102443937</v>
+        <v>0.03113035683590389</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N9">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O9">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P9">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q9">
-        <v>142.669338902675</v>
+        <v>1.234160013142</v>
       </c>
       <c r="R9">
-        <v>1284.024050124075</v>
+        <v>11.107440118278</v>
       </c>
       <c r="S9">
-        <v>0.05956395916138648</v>
+        <v>0.02459143396087657</v>
       </c>
       <c r="T9">
-        <v>0.05956395916138647</v>
+        <v>0.02459143396087656</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.60464166666667</v>
+        <v>9.788214000000002</v>
       </c>
       <c r="H10">
-        <v>169.813925</v>
+        <v>29.364642</v>
       </c>
       <c r="I10">
-        <v>0.1433796102443937</v>
+        <v>0.0311303568359039</v>
       </c>
       <c r="J10">
-        <v>0.1433796102443937</v>
+        <v>0.03113035683590389</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N10">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O10">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P10">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q10">
-        <v>199.6313634086112</v>
+        <v>0.19703674782</v>
       </c>
       <c r="R10">
-        <v>1796.6822706775</v>
+        <v>1.77333073038</v>
       </c>
       <c r="S10">
-        <v>0.08334540882336329</v>
+        <v>0.003926084235662167</v>
       </c>
       <c r="T10">
-        <v>0.08334540882336326</v>
+        <v>0.003926084235662166</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.84458233333333</v>
+        <v>12.12016933333333</v>
       </c>
       <c r="H11">
-        <v>47.533747</v>
+        <v>36.360508</v>
       </c>
       <c r="I11">
-        <v>0.04013434185868808</v>
+        <v>0.03854688876420623</v>
       </c>
       <c r="J11">
-        <v>0.04013434185868807</v>
+        <v>0.03854688876420622</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N11">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O11">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P11">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q11">
-        <v>0.3152807807961111</v>
+        <v>0.1623698685022222</v>
       </c>
       <c r="R11">
-        <v>2.837527027165</v>
+        <v>1.46132881652</v>
       </c>
       <c r="S11">
-        <v>0.0001316286435203878</v>
+        <v>0.003235324314505394</v>
       </c>
       <c r="T11">
-        <v>0.0001316286435203878</v>
+        <v>0.003235324314505393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.84458233333333</v>
+        <v>12.12016933333333</v>
       </c>
       <c r="H12">
-        <v>47.533747</v>
+        <v>36.360508</v>
       </c>
       <c r="I12">
-        <v>0.04013434185868808</v>
+        <v>0.03854688876420623</v>
       </c>
       <c r="J12">
-        <v>0.04013434185868807</v>
+        <v>0.03854688876420622</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N12">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O12">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P12">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q12">
-        <v>39.935525075797</v>
+        <v>1.528187710619111</v>
       </c>
       <c r="R12">
-        <v>359.4197256821731</v>
+        <v>13.753689395572</v>
       </c>
       <c r="S12">
-        <v>0.01667294460743238</v>
+        <v>0.03045012540135596</v>
       </c>
       <c r="T12">
-        <v>0.01667294460743238</v>
+        <v>0.03045012540135595</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.84458233333333</v>
+        <v>12.12016933333333</v>
       </c>
       <c r="H13">
-        <v>47.533747</v>
+        <v>36.360508</v>
       </c>
       <c r="I13">
-        <v>0.04013434185868808</v>
+        <v>0.03854688876420623</v>
       </c>
       <c r="J13">
-        <v>0.04013434185868807</v>
+        <v>0.03854688876420622</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N13">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O13">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P13">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q13">
-        <v>55.88014482045556</v>
+        <v>0.24397900868</v>
       </c>
       <c r="R13">
-        <v>502.9213033841</v>
+        <v>2.19581107812</v>
       </c>
       <c r="S13">
-        <v>0.02332976860773531</v>
+        <v>0.004861439048344881</v>
       </c>
       <c r="T13">
-        <v>0.0233297686077353</v>
+        <v>0.004861439048344879</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.03884300000001</v>
+        <v>16.51773933333333</v>
       </c>
       <c r="H14">
-        <v>165.116529</v>
+        <v>49.553218</v>
       </c>
       <c r="I14">
-        <v>0.1394134407583308</v>
+        <v>0.0525328849133368</v>
       </c>
       <c r="J14">
-        <v>0.1394134407583308</v>
+        <v>0.05253288491333678</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N14">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O14">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P14">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q14">
-        <v>1.095181244295</v>
+        <v>0.2212826479355556</v>
       </c>
       <c r="R14">
-        <v>9.856631198655002</v>
+        <v>1.99154383142</v>
       </c>
       <c r="S14">
-        <v>0.0004572344093779262</v>
+        <v>0.004409199427504873</v>
       </c>
       <c r="T14">
-        <v>0.0004572344093779262</v>
+        <v>0.004409199427504871</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.03884300000001</v>
+        <v>16.51773933333333</v>
       </c>
       <c r="H15">
-        <v>165.116529</v>
+        <v>49.553218</v>
       </c>
       <c r="I15">
-        <v>0.1394134407583308</v>
+        <v>0.0525328849133368</v>
       </c>
       <c r="J15">
-        <v>0.1394134407583308</v>
+        <v>0.05253288491333678</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N15">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O15">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P15">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q15">
-        <v>138.722816955879</v>
+        <v>2.082661187495778</v>
       </c>
       <c r="R15">
-        <v>1248.505352602911</v>
+        <v>18.743950687462</v>
       </c>
       <c r="S15">
-        <v>0.05791629979829915</v>
+        <v>0.04149836691337561</v>
       </c>
       <c r="T15">
-        <v>0.05791629979829913</v>
+        <v>0.0414983669133756</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.03884300000001</v>
+        <v>16.51773933333333</v>
       </c>
       <c r="H16">
-        <v>165.116529</v>
+        <v>49.553218</v>
       </c>
       <c r="I16">
-        <v>0.1394134407583308</v>
+        <v>0.0525328849133368</v>
       </c>
       <c r="J16">
-        <v>0.1394134407583308</v>
+        <v>0.05253288491333678</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N16">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O16">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P16">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q16">
-        <v>194.1091568643</v>
+        <v>0.33250209278</v>
       </c>
       <c r="R16">
-        <v>1746.9824117787</v>
+        <v>2.99251883502</v>
       </c>
       <c r="S16">
-        <v>0.08103990655065371</v>
+        <v>0.006625318572456314</v>
       </c>
       <c r="T16">
-        <v>0.0810399065506537</v>
+        <v>0.006625318572456312</v>
       </c>
     </row>
   </sheetData>
